--- a/biology/Botanique/Ficus_citrifolia/Ficus_citrifolia.xlsx
+++ b/biology/Botanique/Ficus_citrifolia/Ficus_citrifolia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ficus citrifolia est une espèce d'arbre de la famille des Moracées originaire d'Amérique tropicale et des Antilles.
 </t>
@@ -511,7 +523,9 @@
           <t>Noms vernaculaires</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Figuier étrangleur, figuier maudit.
 </t>
@@ -542,7 +556,9 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Ficus amazonica (Miq.) Miq.
 Ficus angustifolia (Liebm.) Miq.
@@ -583,12 +599,14 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Arbre atteignant 15 m de haut, branches très étendues.
 Les racines aériennes de l'arbre lui permettent d'étendre la surface de l'arbre lors de leur prise de contact avec le sol
 Feuilles larges, cartilagineuses, ramassées à l'extrémité des rameaux courts, vert pâle en dessus, grisâtre en dessous, ovales, arrondies à la base et au sommet : les jeunes, souvent obovales et atténuées en coin, à la base ; à nervures larges, carénées et très saillantes à la face inférieure ; pétiole long, cannelé, comprimé, élargi à la base et laissant de grandes cicatrices blanches.
-Fruits globuleux, subsessiles, de 8-10 mm de diamètre, légèrement plus longs que larges, veloutés, marqués de taches rondes, vertes ou brunes[1].</t>
+Fruits globuleux, subsessiles, de 8-10 mm de diamètre, légèrement plus longs que larges, veloutés, marqués de taches rondes, vertes ou brunes.</t>
         </is>
       </c>
     </row>
@@ -616,7 +634,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Amérique tropicale, Antilles, Floride.
 </t>
